--- a/사자산기실기/SPS/공개문제4번(0630-3).xlsx
+++ b/사자산기실기/SPS/공개문제4번(0630-3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeji\OneDrive\바탕 화면\CertificationTest\사자산기실기\SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CFFCDC-3B25-4625-ADB6-0087277027FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD3D4B9-76A3-4D80-B951-DDE682B0EC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{538F020E-8DFB-44BE-8570-4DB8DD05D054}"/>
   </bookViews>
@@ -194,11 +194,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>품목이름이 마우스이고 출고가가 7,000이상인 품목들의 합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이익금액이 1,000,000 이상 2,000,000 미만 품목들의 합</t>
+    <t>품목이름이 마우스이고 출고가가 7,000이상인
+ 품목들의 합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익금액이 1,000,000 이상 2,000,000 미만 
+품목들의 합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +210,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -300,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,22 +312,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,6 +451,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$4:$A$10</c:f>
@@ -1850,8 +1912,8 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1877,917 +1939,917 @@
       <c r="J1" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>46</v>
       </c>
-      <c r="D4" s="8" t="str">
-        <f>CONCATENATE(LEFT(A4,2),"#",B4)</f>
+      <c r="D4" s="2" t="str">
+        <f t="shared" ref="D4:D23" si="0">CONCATENATE(LEFT(A4,2),"#",B4)</f>
         <v>LM#모니터</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>210000</v>
       </c>
-      <c r="F4" s="7">
-        <f>E4+(E4*28%)</f>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F23" si="1">E4+(E4*28%)</f>
         <v>268800</v>
       </c>
-      <c r="G4" s="7">
-        <f>F4*C4</f>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G23" si="2">F4*C4</f>
         <v>12364800</v>
       </c>
-      <c r="H4" s="7">
-        <f>(F4-E4)*C4</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H23" si="3">(F4-E4)*C4</f>
         <v>2704800</v>
       </c>
-      <c r="I4" s="8" t="str">
-        <f>IF(H4&gt;=2500000,"A급",IF(H4&gt;=1000000,"B급","C급"))</f>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I23" si="4">IF(H4&gt;=2500000,"A급",IF(H4&gt;=1000000,"B급","C급"))</f>
         <v>A급</v>
       </c>
       <c r="J4" s="1">
-        <f>RANK(G4,$G$4:$G$23,0)</f>
+        <f t="shared" ref="J4:J23" si="5">RANK(G4,$G$4:$G$23,0)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>57</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f>CONCATENATE(LEFT(A5,2),"#",B5)</f>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>170000</v>
       </c>
-      <c r="F5" s="7">
-        <f>E5+(E5*28%)</f>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
         <v>217600</v>
       </c>
-      <c r="G5" s="7">
-        <f>F5*C5</f>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
         <v>12403200</v>
       </c>
-      <c r="H5" s="7">
-        <f>(F5-E5)*C5</f>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
         <v>2713200</v>
       </c>
-      <c r="I5" s="8" t="str">
-        <f>IF(H5&gt;=2500000,"A급",IF(H5&gt;=1000000,"B급","C급"))</f>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>A급</v>
       </c>
       <c r="J5" s="1">
-        <f>RANK(G5,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="str">
-        <f>CONCATENATE(LEFT(A6,2),"#",B6)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>SS#스캐너</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>320000</v>
       </c>
-      <c r="F6" s="7">
-        <f>E6+(E6*28%)</f>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
         <v>409600</v>
       </c>
-      <c r="G6" s="7">
-        <f>F6*C6</f>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
         <v>15564800</v>
       </c>
-      <c r="H6" s="7">
-        <f>(F6-E6)*C6</f>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
         <v>3404800</v>
       </c>
-      <c r="I6" s="8" t="str">
-        <f>IF(H6&gt;=2500000,"A급",IF(H6&gt;=1000000,"B급","C급"))</f>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>A급</v>
       </c>
       <c r="J6" s="1">
-        <f>RANK(G6,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="str">
-        <f>CONCATENATE(LEFT(A7,2),"#",B7)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>SS#스캐너</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>437000</v>
       </c>
-      <c r="F7" s="7">
-        <f>E7+(E7*28%)</f>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
         <v>559360</v>
       </c>
-      <c r="G7" s="7">
-        <f>F7*C7</f>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
         <v>17340160</v>
       </c>
-      <c r="H7" s="7">
-        <f>(F7-E7)*C7</f>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
         <v>3793160</v>
       </c>
-      <c r="I7" s="8" t="str">
-        <f>IF(H7&gt;=2500000,"A급",IF(H7&gt;=1000000,"B급","C급"))</f>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>A급</v>
       </c>
       <c r="J7" s="1">
-        <f>RANK(G7,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>68</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f>CONCATENATE(LEFT(A8,2),"#",B8)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>LM#모니터</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>240000</v>
       </c>
-      <c r="F8" s="7">
-        <f>E8+(E8*28%)</f>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
         <v>307200</v>
       </c>
-      <c r="G8" s="7">
-        <f>F8*C8</f>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
         <v>20889600</v>
       </c>
-      <c r="H8" s="7">
-        <f>(F8-E8)*C8</f>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
         <v>4569600</v>
       </c>
-      <c r="I8" s="8" t="str">
-        <f>IF(H8&gt;=2500000,"A급",IF(H8&gt;=1000000,"B급","C급"))</f>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>A급</v>
       </c>
       <c r="J8" s="1">
-        <f>RANK(G8,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>CONCATENATE(LEFT(A9,2),"#",B9)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>SS#스캐너</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>480000</v>
       </c>
-      <c r="F9" s="7">
-        <f>E9+(E9*28%)</f>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
         <v>614400</v>
       </c>
-      <c r="G9" s="7">
-        <f>F9*C9</f>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
         <v>20889600</v>
       </c>
-      <c r="H9" s="7">
-        <f>(F9-E9)*C9</f>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
         <v>4569600</v>
       </c>
-      <c r="I9" s="8" t="str">
-        <f>IF(H9&gt;=2500000,"A급",IF(H9&gt;=1000000,"B급","C급"))</f>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>A급</v>
       </c>
       <c r="J9" s="1">
-        <f>RANK(G9,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f>CONCATENATE(LEFT(A10,2),"#",B10)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>LM#모니터</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>340000</v>
       </c>
-      <c r="F10" s="7">
-        <f>E10+(E10*28%)</f>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
         <v>435200</v>
       </c>
-      <c r="G10" s="7">
-        <f>F10*C10</f>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
         <v>20889600</v>
       </c>
-      <c r="H10" s="7">
-        <f>(F10-E10)*C10</f>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
         <v>4569600</v>
       </c>
-      <c r="I10" s="8" t="str">
-        <f>IF(H10&gt;=2500000,"A급",IF(H10&gt;=1000000,"B급","C급"))</f>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>A급</v>
       </c>
       <c r="J10" s="1">
-        <f>RANK(G10,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="str">
-        <f>CONCATENATE(LEFT(A11,2),"#",B11)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>210000</v>
       </c>
-      <c r="F11" s="7">
-        <f>E11+(E11*28%)</f>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
         <v>268800</v>
       </c>
-      <c r="G11" s="7">
-        <f>F11*C11</f>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
         <v>5913600</v>
       </c>
-      <c r="H11" s="7">
-        <f>(F11-E11)*C11</f>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
         <v>1293600</v>
       </c>
-      <c r="I11" s="8" t="str">
-        <f>IF(H11&gt;=2500000,"A급",IF(H11&gt;=1000000,"B급","C급"))</f>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J11" s="1">
-        <f>RANK(G11,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="str">
-        <f>CONCATENATE(LEFT(A12,2),"#",B12)</f>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>LM#모니터</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>210000</v>
       </c>
-      <c r="F12" s="7">
-        <f>E12+(E12*28%)</f>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
         <v>268800</v>
       </c>
-      <c r="G12" s="7">
-        <f>F12*C12</f>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
         <v>6182400</v>
       </c>
-      <c r="H12" s="7">
-        <f>(F12-E12)*C12</f>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
         <v>1352400</v>
       </c>
-      <c r="I12" s="8" t="str">
-        <f>IF(H12&gt;=2500000,"A급",IF(H12&gt;=1000000,"B급","C급"))</f>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J12" s="1">
-        <f>RANK(G12,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="str">
-        <f>CONCATENATE(LEFT(A13,2),"#",B13)</f>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>165000</v>
       </c>
-      <c r="F13" s="7">
-        <f>E13+(E13*28%)</f>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
         <v>211200</v>
       </c>
-      <c r="G13" s="7">
-        <f>F13*C13</f>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
         <v>6547200</v>
       </c>
-      <c r="H13" s="7">
-        <f>(F13-E13)*C13</f>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
         <v>1432200</v>
       </c>
-      <c r="I13" s="8" t="str">
-        <f>IF(H13&gt;=2500000,"A급",IF(H13&gt;=1000000,"B급","C급"))</f>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J13" s="1">
-        <f>RANK(G13,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>39</v>
       </c>
-      <c r="D14" s="8" t="str">
-        <f>CONCATENATE(LEFT(A14,2),"#",B14)</f>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>LM#모니터</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>150000</v>
       </c>
-      <c r="F14" s="7">
-        <f>E14+(E14*28%)</f>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
         <v>192000</v>
       </c>
-      <c r="G14" s="7">
-        <f>F14*C14</f>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
         <v>7488000</v>
       </c>
-      <c r="H14" s="7">
-        <f>(F14-E14)*C14</f>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
         <v>1638000</v>
       </c>
-      <c r="I14" s="8" t="str">
-        <f>IF(H14&gt;=2500000,"A급",IF(H14&gt;=1000000,"B급","C급"))</f>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J14" s="1">
-        <f>RANK(G14,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>36</v>
       </c>
-      <c r="D15" s="8" t="str">
-        <f>CONCATENATE(LEFT(A15,2),"#",B15)</f>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>190000</v>
       </c>
-      <c r="F15" s="7">
-        <f>E15+(E15*28%)</f>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
         <v>243200</v>
       </c>
-      <c r="G15" s="7">
-        <f>F15*C15</f>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
         <v>8755200</v>
       </c>
-      <c r="H15" s="7">
-        <f>(F15-E15)*C15</f>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
         <v>1915200</v>
       </c>
-      <c r="I15" s="8" t="str">
-        <f>IF(H15&gt;=2500000,"A급",IF(H15&gt;=1000000,"B급","C급"))</f>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J15" s="1">
-        <f>RANK(G15,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>45</v>
       </c>
-      <c r="D16" s="8" t="str">
-        <f>CONCATENATE(LEFT(A16,2),"#",B16)</f>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>170000</v>
       </c>
-      <c r="F16" s="7">
-        <f>E16+(E16*28%)</f>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
         <v>217600</v>
       </c>
-      <c r="G16" s="7">
-        <f>F16*C16</f>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
         <v>9792000</v>
       </c>
-      <c r="H16" s="7">
-        <f>(F16-E16)*C16</f>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
         <v>2142000</v>
       </c>
-      <c r="I16" s="8" t="str">
-        <f>IF(H16&gt;=2500000,"A급",IF(H16&gt;=1000000,"B급","C급"))</f>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J16" s="1">
-        <f>RANK(G16,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>48</v>
       </c>
-      <c r="D17" s="8" t="str">
-        <f>CONCATENATE(LEFT(A17,2),"#",B17)</f>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>180000</v>
       </c>
-      <c r="F17" s="7">
-        <f>E17+(E17*28%)</f>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
         <v>230400</v>
       </c>
-      <c r="G17" s="7">
-        <f>F17*C17</f>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
         <v>11059200</v>
       </c>
-      <c r="H17" s="7">
-        <f>(F17-E17)*C17</f>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
         <v>2419200</v>
       </c>
-      <c r="I17" s="8" t="str">
-        <f>IF(H17&gt;=2500000,"A급",IF(H17&gt;=1000000,"B급","C급"))</f>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>B급</v>
       </c>
       <c r="J17" s="1">
-        <f>RANK(G17,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="str">
-        <f>CONCATENATE(LEFT(A18,2),"#",B18)</f>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>MS#마우스</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="7">
-        <f>E18+(E18*28%)</f>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
         <v>7936</v>
       </c>
-      <c r="G18" s="7">
-        <f>F18*C18</f>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
         <v>174592</v>
       </c>
-      <c r="H18" s="7">
-        <f>(F18-E18)*C18</f>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
         <v>38192</v>
       </c>
-      <c r="I18" s="8" t="str">
-        <f>IF(H18&gt;=2500000,"A급",IF(H18&gt;=1000000,"B급","C급"))</f>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>C급</v>
       </c>
       <c r="J18" s="1">
-        <f>RANK(G18,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>43</v>
       </c>
-      <c r="D19" s="8" t="str">
-        <f>CONCATENATE(LEFT(A19,2),"#",B19)</f>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>MS#마우스</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>6800</v>
       </c>
-      <c r="F19" s="7">
-        <f>E19+(E19*28%)</f>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
         <v>8704</v>
       </c>
-      <c r="G19" s="7">
-        <f>F19*C19</f>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
         <v>374272</v>
       </c>
-      <c r="H19" s="7">
-        <f>(F19-E19)*C19</f>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
         <v>81872</v>
       </c>
-      <c r="I19" s="8" t="str">
-        <f>IF(H19&gt;=2500000,"A급",IF(H19&gt;=1000000,"B급","C급"))</f>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>C급</v>
       </c>
       <c r="J19" s="1">
-        <f>RANK(G19,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="str">
-        <f>CONCATENATE(LEFT(A20,2),"#",B20)</f>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>MS#마우스</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>15400</v>
       </c>
-      <c r="F20" s="7">
-        <f>E20+(E20*28%)</f>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
         <v>19712</v>
       </c>
-      <c r="G20" s="7">
-        <f>F20*C20</f>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
         <v>492800</v>
       </c>
-      <c r="H20" s="7">
-        <f>(F20-E20)*C20</f>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
         <v>107800</v>
       </c>
-      <c r="I20" s="8" t="str">
-        <f>IF(H20&gt;=2500000,"A급",IF(H20&gt;=1000000,"B급","C급"))</f>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>C급</v>
       </c>
       <c r="J20" s="1">
-        <f>RANK(G20,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>21</v>
       </c>
-      <c r="D21" s="8" t="str">
-        <f>CONCATENATE(LEFT(A21,2),"#",B21)</f>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>130000</v>
       </c>
-      <c r="F21" s="7">
-        <f>E21+(E21*28%)</f>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
         <v>166400</v>
       </c>
-      <c r="G21" s="7">
-        <f>F21*C21</f>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
         <v>3494400</v>
       </c>
-      <c r="H21" s="7">
-        <f>(F21-E21)*C21</f>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
         <v>764400</v>
       </c>
-      <c r="I21" s="8" t="str">
-        <f>IF(H21&gt;=2500000,"A급",IF(H21&gt;=1000000,"B급","C급"))</f>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>C급</v>
       </c>
       <c r="J21" s="1">
-        <f>RANK(G21,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>28</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f>CONCATENATE(LEFT(A22,2),"#",B22)</f>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PT#프린터</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>110000</v>
       </c>
-      <c r="F22" s="7">
-        <f>E22+(E22*28%)</f>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
         <v>140800</v>
       </c>
-      <c r="G22" s="7">
-        <f>F22*C22</f>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
         <v>3942400</v>
       </c>
-      <c r="H22" s="7">
-        <f>(F22-E22)*C22</f>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
         <v>862400</v>
       </c>
-      <c r="I22" s="8" t="str">
-        <f>IF(H22&gt;=2500000,"A급",IF(H22&gt;=1000000,"B급","C급"))</f>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>C급</v>
       </c>
       <c r="J22" s="1">
-        <f>RANK(G22,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>27</v>
       </c>
-      <c r="D23" s="8" t="str">
-        <f>CONCATENATE(LEFT(A23,2),"#",B23)</f>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>LM#모니터</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>120000</v>
       </c>
-      <c r="F23" s="7">
-        <f>E23+(E23*28%)</f>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
-      <c r="G23" s="7">
-        <f>F23*C23</f>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
         <v>4147200</v>
       </c>
-      <c r="H23" s="7">
-        <f>(F23-E23)*C23</f>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
         <v>907200</v>
       </c>
-      <c r="I23" s="8" t="str">
-        <f>IF(H23&gt;=2500000,"A급",IF(H23&gt;=1000000,"B급","C급"))</f>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>C급</v>
       </c>
       <c r="J23" s="1">
-        <f>RANK(G23,$G$4:$G$23,0)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="7">
-        <f>SUMIFS(G4:G23,$B$4:$B$23,$E$24)</f>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3">
+        <f>SUMIFS($G$4:$G$23,$B$4:$B$23,E24)</f>
         <v>61907200</v>
       </c>
-      <c r="H24" s="7">
-        <f>SUMIFS(H4:H23,$B$4:$B$23,$E$24)</f>
+      <c r="H24" s="3">
+        <f>SUMIFS($H$4:$H$23,$B$4:$B$23,E24)</f>
         <v>13542200</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7">
-        <f>SUMIFS(G5:G24,$B$4:$B$23,$E$24)</f>
-        <v>58350592</v>
-      </c>
-      <c r="H25" s="7">
-        <f>SUMIFS(H5:H24,$B$4:$B$23,$E$24)</f>
-        <v>12764192</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3">
+        <f>SUMIFS($G$4:$G$23,$B$4:$B$23,E25)</f>
+        <v>71961600</v>
+      </c>
+      <c r="H25" s="3">
+        <f>SUMIFS($H$4:$H$23,$B$4:$B$23,E25)</f>
+        <v>15741600</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7">
-        <f>SUMIFS($F$4:$F$23,$B$4:$B$23,"마우스")</f>
-        <v>36352</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3">
+        <f>SUMIFS(H4:H23,$B$4:$B$23,"마우스",$F$4:$F$23,"&gt;=7000")</f>
+        <v>227864</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="7">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3">
         <f>SUMIFS($H$4:$H$23,$I$4:$I$23,"A급")</f>
         <v>26324760</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="3">
         <f>SUMIFS($H$4:$H$23,$H$4:$H$23,"&gt;=1000000",$H$4:$H$23,"&lt;2000000")</f>
         <v>7631400</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J23">
